--- a/data/out/people.xlsx
+++ b/data/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -452,6 +452,54 @@
         </is>
       </c>
       <c r="B3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>André</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Núria</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Helena</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>25</t>
         </is>

--- a/data/out/people.xlsx
+++ b/data/out/people.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t xml:space="preserve"> 13</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t xml:space="preserve"> 23</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>4</t>
         </is>
       </c>
     </row>
